--- a/bots/crawl_ch/output/clothes_2022-08-13.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-13.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1288,12 +1288,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S - Online kein Bestand 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-13 06:59:51</t>
+          <t>2022-08-13 20:59:07</t>
         </is>
       </c>
     </row>
